--- a/Excelam.Tests/Files/GetCellFormat/GetCellFormatValuesDateTime.xlsx
+++ b/Excelam.Tests/Files/GetCellFormat/GetCellFormatValuesDateTime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a990f455bb745add/ProjetsDev/70-yvlawy/Excelam/Dev/ExcelamSol/Excelam.Tests/Files/GetCellFormat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABDACC1048F0A91D62385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12093B81-15DD-4E32-8A3A-7D6053DAA7D7}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_F25DC773A252ABDACC1048F0A91D62385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15FD22E1-4628-4E8C-9C1C-951D24AA9CBD}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="30" windowWidth="18945" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1545" yWindow="720" windowWidth="18945" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+  <si>
+    <t>dateLarge english-US</t>
+  </si>
+  <si>
+    <t>dateLarge</t>
+  </si>
+  <si>
+    <t>dateLargeGermany</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-407]d\.\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="170" formatCode="[$-807]d\.\ mmmm\ yyyy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -55,9 +76,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -338,20 +365,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>44242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>9.9884259259259266E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>35987</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>43876</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="5">
+        <v>43876</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6">
+        <v>43876</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="7">
+        <v>43876</v>
       </c>
     </row>
   </sheetData>
